--- a/Daily/Forecast/Stationaritiy/Square Percentage Return/toyota.xlsx
+++ b/Daily/Forecast/Stationaritiy/Square Percentage Return/toyota.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>-0.02515558890558162</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-45.28430653387501</v>
+        <v>-45.26069945739895</v>
       </c>
       <c r="E2">
-        <v>45.23399535606384</v>
+        <v>45.26069945739895</v>
       </c>
       <c r="F2">
         <v>-42.65797743282818</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>-0.3574218260106887</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-45.63766222591436</v>
+        <v>-45.28182272899494</v>
       </c>
       <c r="E3">
-        <v>44.92281857389299</v>
+        <v>45.28182272899494</v>
       </c>
       <c r="F3">
         <v>-6.178540553424483</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>-0.05134868971520606</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-45.3233859337906</v>
+        <v>-45.27368985118432</v>
       </c>
       <c r="E4">
-        <v>45.22068855436019</v>
+        <v>45.27368985118432</v>
       </c>
       <c r="F4">
         <v>-17.62373678175422</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.1745318577990593</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-45.44260806170433</v>
+        <v>-45.27003178832022</v>
       </c>
       <c r="E5">
-        <v>45.09354434610621</v>
+        <v>45.27003178832022</v>
       </c>
       <c r="F5">
         <v>15.21514476174417</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.1180211908355087</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-45.14518857126414</v>
+        <v>-45.26507887638244</v>
       </c>
       <c r="E6">
-        <v>45.38123095293516</v>
+        <v>45.26507887638244</v>
       </c>
       <c r="F6">
         <v>-28.46153092256642</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.2359893978549663</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-45.50384697204611</v>
+        <v>-45.26961569715409</v>
       </c>
       <c r="E7">
-        <v>45.03186817633618</v>
+        <v>45.26961569715409</v>
       </c>
       <c r="F7">
         <v>14.98197586953296</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>0.09987678618674423</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-45.16303191639098</v>
+        <v>-45.26455132102952</v>
       </c>
       <c r="E8">
-        <v>45.36278548876446</v>
+        <v>45.26455132102952</v>
       </c>
       <c r="F8">
         <v>11.06768595051051</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.1066285641195603</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-45.14951179405058</v>
+        <v>-45.25781944591265</v>
       </c>
       <c r="E9">
-        <v>45.3627689222897</v>
+        <v>45.25781944591265</v>
       </c>
       <c r="F9">
         <v>42.91983992726642</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>0.3968995870702869</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-44.88052581311292</v>
+        <v>-45.2792550172879</v>
       </c>
       <c r="E10">
-        <v>45.67432498725349</v>
+        <v>45.2792550172879</v>
       </c>
       <c r="F10">
         <v>-3.031539066883226</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>0.01972082763289701</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-45.24916161442839</v>
+        <v>-45.27067018839983</v>
       </c>
       <c r="E11">
-        <v>45.28860326969418</v>
+        <v>45.27067018839983</v>
       </c>
       <c r="F11">
         <v>8.74371436157162</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>0.07980674422464062</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-45.18159244226337</v>
+        <v>-45.26319116254233</v>
       </c>
       <c r="E12">
-        <v>45.34120593071265</v>
+        <v>45.26319116254233</v>
       </c>
       <c r="F12">
         <v>11.36961255172722</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>0.1091411657241472</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-45.1456177975324</v>
+        <v>-45.25658083293752</v>
       </c>
       <c r="E13">
-        <v>45.36390012898069</v>
+        <v>45.25658083293752</v>
       </c>
       <c r="F13">
         <v>8.313915852720299</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>0.08828969367000927</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-45.15885033078393</v>
+        <v>-45.2489907483947</v>
       </c>
       <c r="E14">
-        <v>45.33542971812395</v>
+        <v>45.2489907483947</v>
       </c>
       <c r="F14">
         <v>1.989577268936671</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>0.0285792381179808</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-45.20990411753672</v>
+        <v>-45.2403395121801</v>
       </c>
       <c r="E15">
-        <v>45.26706259377267</v>
+        <v>45.2403395121801</v>
       </c>
       <c r="F15">
         <v>-9.30377086163503</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>-0.08007689467084389</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-45.31127379386384</v>
+        <v>-45.23304395810974</v>
       </c>
       <c r="E16">
-        <v>45.15112000452215</v>
+        <v>45.23304395810974</v>
       </c>
       <c r="F16">
         <v>-18.41809259257587</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.1772427510070553</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-45.40523079795537</v>
+        <v>-45.22988316898213</v>
       </c>
       <c r="E17">
-        <v>45.05074529594125</v>
+        <v>45.22988316898213</v>
       </c>
       <c r="F17">
         <v>-26.79355986795144</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.2758180298566253</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-45.50667848250662</v>
+        <v>-45.23291202369168</v>
       </c>
       <c r="E18">
-        <v>44.95504242279337</v>
+        <v>45.23291202369168</v>
       </c>
       <c r="F18">
         <v>-33.80997339291412</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>-0.3798340398677915</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-45.620353184184</v>
+        <v>-45.24288227037148</v>
       </c>
       <c r="E19">
-        <v>44.86068510444841</v>
+        <v>45.24288227037148</v>
       </c>
       <c r="F19">
         <v>-9.079388665866617</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.1428516320672348</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-45.37590824725378</v>
+        <v>-45.23553002897381</v>
       </c>
       <c r="E20">
-        <v>45.09020498311931</v>
+        <v>45.23553002897381</v>
       </c>
       <c r="F20">
         <v>9.427667389298477</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.07969221356667666</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-45.14616527524597</v>
+        <v>-45.22828744833841</v>
       </c>
       <c r="E21">
-        <v>45.30554970237932</v>
+        <v>45.22828744833841</v>
       </c>
       <c r="F21">
         <v>4.521399273127713</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>0.05642647708543036</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-45.16106462353378</v>
+        <v>-45.21993248999314</v>
       </c>
       <c r="E22">
-        <v>45.27391757770464</v>
+        <v>45.21993248999314</v>
       </c>
       <c r="F22">
         <v>15.21811505552719</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.1648132889588567</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-45.04774534156554</v>
+        <v>-45.21502718919893</v>
       </c>
       <c r="E23">
-        <v>45.37737191948325</v>
+        <v>45.21502718919893</v>
       </c>
       <c r="F23">
         <v>34.78406518244341</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>0.3954202400923519</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-44.82800169888791</v>
+        <v>-45.22607847588182</v>
       </c>
       <c r="E24">
-        <v>45.61884217907261</v>
+        <v>45.22607847588182</v>
       </c>
       <c r="F24">
         <v>-2.703668643716384</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.01944549371498577</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-45.19545512271522</v>
+        <v>-45.21751949900396</v>
       </c>
       <c r="E25">
-        <v>45.23434611014518</v>
+        <v>45.21751949900396</v>
       </c>
       <c r="F25">
         <v>0.3381836496402002</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.006011741196858246</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-45.2002179058202</v>
+        <v>-45.20884820285629</v>
       </c>
       <c r="E26">
-        <v>45.21224138821391</v>
+        <v>45.20884820285629</v>
       </c>
       <c r="F26">
         <v>24.51524627911965</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>0.262804773792646</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-44.94454512110651</v>
+        <v>-45.20997177144031</v>
       </c>
       <c r="E27">
-        <v>45.4701546686918</v>
+        <v>45.20997177144031</v>
       </c>
       <c r="F27">
         <v>13.62214549229819</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>0.1820372266848036</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-45.01955381037743</v>
+        <v>-45.2043289795765</v>
       </c>
       <c r="E28">
-        <v>45.38362826374704</v>
+        <v>45.2043289795765</v>
       </c>
       <c r="F28">
         <v>-14.95673268452791</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.1389802519995202</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-45.33564127365114</v>
+        <v>-45.19931082710627</v>
       </c>
       <c r="E29">
-        <v>45.0576807696521</v>
+        <v>45.19931082710627</v>
       </c>
       <c r="F29">
         <v>-1.001597587094949</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.02772199598343753</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-45.21573920502638</v>
+        <v>-45.19067077369998</v>
       </c>
       <c r="E30">
-        <v>45.16029521305951</v>
+        <v>45.19067077369998</v>
       </c>
       <c r="F30">
         <v>-7.02701465730442</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>-0.07906975237731551</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-45.25923363712339</v>
+        <v>-45.1828230341145</v>
       </c>
       <c r="E31">
-        <v>45.10109413236876</v>
+        <v>45.1828230341145</v>
       </c>
       <c r="F31">
         <v>50.24717288511127</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>0.5186160476855495</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-44.69409701963819</v>
+        <v>-45.21524205307176</v>
       </c>
       <c r="E32">
-        <v>45.73132911500928</v>
+        <v>45.21524205307176</v>
       </c>
       <c r="F32">
         <v>38.37399919032407</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.5231071464911841</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-44.70420374220564</v>
+        <v>-45.23052207658109</v>
       </c>
       <c r="E33">
-        <v>45.75041803518801</v>
+        <v>45.23052207658109</v>
       </c>
       <c r="F33">
         <v>36.00571049624293</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>0.5381182341839938</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-44.70096496733319</v>
+        <v>-45.24292546256717</v>
       </c>
       <c r="E34">
-        <v>45.77720143570119</v>
+        <v>45.24292546256717</v>
       </c>
       <c r="F34">
         <v>-60.41821284853697</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>-0.6253838900563089</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-45.91600988113422</v>
+        <v>-45.29349182443485</v>
       </c>
       <c r="E35">
-        <v>44.66524210102159</v>
+        <v>45.29349182443485</v>
       </c>
       <c r="F35">
         <v>19.30064585715527</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>0.132515900132459</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-45.15587843582773</v>
+        <v>-45.29087455913831</v>
       </c>
       <c r="E36">
-        <v>45.42091023609265</v>
+        <v>45.29087455913831</v>
       </c>
       <c r="F36">
         <v>4.154495004814862</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.05893847716433753</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-45.22106708324864</v>
+        <v>-45.28250348659752</v>
       </c>
       <c r="E37">
-        <v>45.33894403757732</v>
+        <v>45.28250348659752</v>
       </c>
       <c r="F37">
         <v>-13.13554216201354</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>-0.1295531777019912</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-45.40373338597323</v>
+        <v>-45.27665266204767</v>
       </c>
       <c r="E38">
-        <v>45.14462703056924</v>
+        <v>45.27665266204767</v>
       </c>
       <c r="F38">
         <v>-18.09859872109527</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>-0.2059658177301218</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-45.47673337653295</v>
+        <v>-45.27331587018631</v>
       </c>
       <c r="E39">
-        <v>45.0648017410727</v>
+        <v>45.27331587018631</v>
       </c>
       <c r="F39">
         <v>21.63224748472743</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>0.1987250839597068</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-45.07112381206705</v>
+        <v>-45.27225409450703</v>
       </c>
       <c r="E40">
-        <v>45.46857397998647</v>
+        <v>45.27225409450703</v>
       </c>
       <c r="F40">
         <v>-13.52985641372797</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>-0.1133583579003246</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-45.3776240548523</v>
+        <v>-45.26658271360234</v>
       </c>
       <c r="E41">
-        <v>45.15090733905166</v>
+        <v>45.26658271360234</v>
       </c>
       <c r="F41">
         <v>7.099837211979576</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>0.05775945914218483</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-45.19871922363915</v>
+        <v>-45.25876871912939</v>
       </c>
       <c r="E42">
-        <v>45.31423814192352</v>
+        <v>45.25876871912939</v>
       </c>
       <c r="F42">
         <v>-31.51815996724636</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>-0.3040113891088545</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-45.56799304508586</v>
+        <v>-45.26621119645912</v>
       </c>
       <c r="E43">
-        <v>44.95997026686814</v>
+        <v>45.26621119645912</v>
       </c>
       <c r="F43">
         <v>4.256513632746106</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>0.005643281047255644</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-45.25005196743187</v>
+        <v>-45.25788117253591</v>
       </c>
       <c r="E44">
-        <v>45.26133852952638</v>
+        <v>45.25788117253591</v>
       </c>
       <c r="F44">
         <v>-18.40857360952342</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.1788459876523154</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-45.43140598043744</v>
+        <v>-45.25474068081242</v>
       </c>
       <c r="E45">
-        <v>45.07371400513281</v>
+        <v>45.25474068081242</v>
       </c>
       <c r="F45">
         <v>4.949534867485283</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>0.02614424894524958</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-45.21822683531308</v>
+        <v>-45.24652235656503</v>
       </c>
       <c r="E46">
-        <v>45.27051533320358</v>
+        <v>45.24652235656503</v>
       </c>
       <c r="F46">
         <v>39.10956043687506</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.3851716004662267</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-44.87526205075491</v>
+        <v>-45.26261893842064</v>
       </c>
       <c r="E47">
-        <v>45.64560525168737</v>
+        <v>45.26261893842064</v>
       </c>
       <c r="F47">
         <v>-3.872634676940834</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>0.007680725380418418</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-45.24443657684265</v>
+        <v>-45.2542519146738</v>
       </c>
       <c r="E48">
-        <v>45.25979802760349</v>
+        <v>45.2542519146738</v>
       </c>
       <c r="F48">
         <v>-6.797372468191298</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.06475891525975097</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-45.30901908416497</v>
+        <v>-45.2463934366567</v>
       </c>
       <c r="E49">
-        <v>45.17950125364547</v>
+        <v>45.2463934366567</v>
       </c>
       <c r="F49">
         <v>-3.245957907696351</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>-0.03893724023451151</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-45.27476156529676</v>
+        <v>-45.23796395052369</v>
       </c>
       <c r="E50">
-        <v>45.19688708482774</v>
+        <v>45.23796395052369</v>
       </c>
       <c r="F50">
         <v>26.76449718177381</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>0.2522148927628005</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-44.98660561228617</v>
+        <v>-45.24092611802008</v>
       </c>
       <c r="E51">
-        <v>45.49103539781177</v>
+        <v>45.24092611802008</v>
       </c>
       <c r="F51">
         <v>-3.203489518498515</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>-0.001300852424221899</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-45.23172264546341</v>
+        <v>-45.23249967687385</v>
       </c>
       <c r="E52">
-        <v>45.22912094061497</v>
+        <v>45.23249967687385</v>
       </c>
       <c r="F52">
         <v>15.96040561919168</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.1518311780459123</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-45.07411289002213</v>
+        <v>-45.22801998026569</v>
       </c>
       <c r="E53">
-        <v>45.37777524611395</v>
+        <v>45.22801998026569</v>
       </c>
       <c r="F53">
         <v>36.80091310507834</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.384094136164844</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-44.85491184182115</v>
+        <v>-45.24126373333032</v>
       </c>
       <c r="E54">
-        <v>45.62310011415083</v>
+        <v>45.24126373333032</v>
       </c>
       <c r="F54">
         <v>2.799813924210781</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>0.07384399874098074</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-45.15667419837594</v>
+        <v>-45.23280777818963</v>
       </c>
       <c r="E55">
-        <v>45.30436219585791</v>
+        <v>45.23280777818963</v>
       </c>
       <c r="F55">
         <v>47.84976443788835</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>0.4994482004015257</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-44.75924413778822</v>
+        <v>-45.26109278830421</v>
       </c>
       <c r="E56">
-        <v>45.75814053859126</v>
+        <v>45.26109278830421</v>
       </c>
       <c r="F56">
         <v>-5.153048842697672</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>0.011796736571827</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-45.23882969296466</v>
+        <v>-45.2529405583991</v>
       </c>
       <c r="E57">
-        <v>45.26242316610831</v>
+        <v>45.2529405583991</v>
       </c>
       <c r="F57">
         <v>37.25313506271704</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>0.3764190202106068</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-44.88794208779026</v>
+        <v>-45.26668599948974</v>
       </c>
       <c r="E58">
-        <v>45.64078012821147</v>
+        <v>45.26668599948974</v>
       </c>
       <c r="F58">
         <v>-8.344998752306765</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.03021827939685706</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-45.28722730075662</v>
+        <v>-45.25923146404718</v>
       </c>
       <c r="E59">
-        <v>45.22679074196291</v>
+        <v>45.25923146404718</v>
       </c>
       <c r="F59">
         <v>-20.42859894919502</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>-0.2059566095895127</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-45.46108147872181</v>
+        <v>-45.25736915897888</v>
       </c>
       <c r="E60">
-        <v>45.04916825954278</v>
+        <v>45.25736915897888</v>
       </c>
       <c r="F60">
         <v>-4.840561482747319</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>-0.07621494515318727</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-45.32311942750594</v>
+        <v>-45.24917983688476</v>
       </c>
       <c r="E61">
-        <v>45.17068953719956</v>
+        <v>45.24917983688476</v>
       </c>
       <c r="F61">
         <v>37.17881295991106</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>0.3526816022858679</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-44.90795053074014</v>
+        <v>-45.26281821923936</v>
       </c>
       <c r="E62">
-        <v>45.61331373531188</v>
+        <v>45.26281821923936</v>
       </c>
       <c r="F62">
         <v>29.72708051821868</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>0.360812493189933</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-44.90509590006034</v>
+        <v>-45.26844184232117</v>
       </c>
       <c r="E63">
-        <v>45.6267208864402</v>
+        <v>45.26844184232117</v>
       </c>
       <c r="F63">
         <v>23.49259875041838</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.3096485810401997</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-44.95628173566371</v>
+        <v>-45.26873814415564</v>
       </c>
       <c r="E64">
-        <v>45.57557889774411</v>
+        <v>45.26873814415564</v>
       </c>
       <c r="F64">
         <v>41.87256164723649</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.5424535949479967</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-44.74260928561267</v>
+        <v>-45.28829570015618</v>
       </c>
       <c r="E65">
-        <v>45.82751647550867</v>
+        <v>45.28829570015618</v>
       </c>
       <c r="F65">
         <v>32.6510911605709</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>0.5045191547591985</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-44.78848744802315</v>
+        <v>-45.29682220866015</v>
       </c>
       <c r="E66">
-        <v>45.79752575754155</v>
+        <v>45.29682220866015</v>
       </c>
       <c r="F66">
         <v>-45.36696487366143</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.4681340206380122</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-45.78623447084563</v>
+        <v>-45.32122175258308</v>
       </c>
       <c r="E67">
-        <v>44.84996642956961</v>
+        <v>45.32122175258308</v>
       </c>
       <c r="F67">
         <v>-7.672472717882073</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>-0.1532795121494719</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-45.4636540183813</v>
+        <v>-45.31360853412951</v>
       </c>
       <c r="E68">
-        <v>45.15709499408235</v>
+        <v>45.31360853412951</v>
       </c>
       <c r="F68">
         <v>1.707797986784243</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>0.0002717784245737098</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-45.3016080397931</v>
+        <v>-45.305104651832</v>
       </c>
       <c r="E69">
-        <v>45.30215159664225</v>
+        <v>45.305104651832</v>
       </c>
       <c r="F69">
         <v>-15.42834825146926</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>-0.1824029197283985</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-45.47954613075254</v>
+        <v>-45.30036633141678</v>
       </c>
       <c r="E70">
-        <v>45.11474029129575</v>
+        <v>45.30036633141678</v>
       </c>
       <c r="F70">
         <v>-26.00928525443322</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>-0.3364160937495559</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-45.6356825448998</v>
+        <v>-45.30264140827316</v>
       </c>
       <c r="E71">
-        <v>44.96285035740069</v>
+        <v>45.30264140827316</v>
       </c>
       <c r="F71">
         <v>18.24562030285435</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>0.1709714882535227</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-45.12527470741377</v>
+        <v>-45.29942362229269</v>
       </c>
       <c r="E72">
-        <v>45.46721768392081</v>
+        <v>45.29942362229269</v>
       </c>
       <c r="F72">
         <v>-24.36857592925676</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>-0.2574230687445014</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-45.55475717469655</v>
+        <v>-45.30037686884231</v>
       </c>
       <c r="E73">
-        <v>45.03991103720755</v>
+        <v>45.30037686884231</v>
       </c>
       <c r="F73">
         <v>-16.72467263228299</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.2316732878774381</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-45.52480557461806</v>
+        <v>-45.29631269748369</v>
       </c>
       <c r="E74">
-        <v>45.06145899886319</v>
+        <v>45.29631269748369</v>
       </c>
       <c r="F74">
         <v>5.592093995797853</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.0345417007295894</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-45.25060444218349</v>
+        <v>-45.28828409404451</v>
       </c>
       <c r="E75">
-        <v>45.31968784364267</v>
+        <v>45.28828409404451</v>
       </c>
       <c r="F75">
         <v>-48.84866491796771</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>-0.5598361396998639</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-45.87459855174994</v>
+        <v>-45.31784192682522</v>
       </c>
       <c r="E76">
-        <v>44.75492627235022</v>
+        <v>45.31784192682522</v>
       </c>
       <c r="F76">
         <v>-78.68742438971452</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>-1.208138604721139</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-46.61147357955997</v>
+        <v>-45.4079619456631</v>
       </c>
       <c r="E77">
-        <v>44.1951963701177</v>
+        <v>45.4079619456631</v>
       </c>
       <c r="F77">
         <v>69.60678253720474</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>0.653776134658218</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-44.82067565226185</v>
+        <v>-45.47645054945221</v>
       </c>
       <c r="E78">
-        <v>46.12822792157828</v>
+        <v>45.47645054945221</v>
       </c>
       <c r="F78">
         <v>-10.95755469202544</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>-0.09888232169793361</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-45.56691916838106</v>
+        <v>-45.46980837885889</v>
       </c>
       <c r="E79">
-        <v>45.36915452498518</v>
+        <v>45.46980837885889</v>
       </c>
       <c r="F79">
         <v>31.77504244736937</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>0.2977263925468767</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-45.17747785090315</v>
+        <v>-45.47729228023572</v>
       </c>
       <c r="E80">
-        <v>45.77293063599691</v>
+        <v>45.47729228023572</v>
       </c>
       <c r="F80">
         <v>15.82864053657644</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.1983879300629146</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-45.27209920443416</v>
+        <v>-45.47272538113409</v>
       </c>
       <c r="E81">
-        <v>45.66887506455998</v>
+        <v>45.47272538113409</v>
       </c>
       <c r="F81">
         <v>52.16790357824976</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>0.5808826910213805</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-44.92388728026902</v>
+        <v>-45.50734280962078</v>
       </c>
       <c r="E82">
-        <v>46.08565266231178</v>
+        <v>45.50734280962078</v>
       </c>
       <c r="F82">
         <v>-30.59088293155483</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.2114293335138617</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-45.72302076716036</v>
+        <v>-45.51362811153366</v>
       </c>
       <c r="E83">
-        <v>45.30016210013264</v>
+        <v>45.51362811153366</v>
       </c>
       <c r="F83">
         <v>-16.23267501233983</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.1869400765749782</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-45.69405245730267</v>
+        <v>-45.50926152231486</v>
       </c>
       <c r="E84">
-        <v>45.32017230415271</v>
+        <v>45.50926152231486</v>
       </c>
       <c r="F84">
         <v>12.40899700458371</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>0.09191142170745636</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-45.40917667997343</v>
+        <v>-45.50316377945335</v>
       </c>
       <c r="E85">
-        <v>45.59299952338835</v>
+        <v>45.50316377945335</v>
       </c>
       <c r="F85">
         <v>-7.080417535637906</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>-0.05387565495627111</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-45.54724734036883</v>
+        <v>-45.49542582336461</v>
       </c>
       <c r="E86">
-        <v>45.43949603045628</v>
+        <v>45.49542582336461</v>
       </c>
       <c r="F86">
         <v>-14.24463023050819</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>-0.1423385075377668</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-45.63037059279786</v>
+        <v>-45.49011031437818</v>
       </c>
       <c r="E87">
-        <v>45.34569357772233</v>
+        <v>45.49011031437818</v>
       </c>
       <c r="F87">
         <v>-16.76206952950636</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.1816446604694506</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-45.66552446501266</v>
+        <v>-45.48603319363901</v>
       </c>
       <c r="E88">
-        <v>45.30223514407376</v>
+        <v>45.48603319363901</v>
       </c>
       <c r="F88">
         <v>-4.214971940872658</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>-0.06625331615162677</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-45.54187216905201</v>
+        <v>-45.47779544833928</v>
       </c>
       <c r="E89">
-        <v>45.40936553674876</v>
+        <v>45.47779544833928</v>
       </c>
       <c r="F89">
         <v>-7.551339622433062</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>-0.0827345706015099</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-45.55072628531298</v>
+        <v>-45.47018324783891</v>
       </c>
       <c r="E90">
-        <v>45.38525714410996</v>
+        <v>45.47018324783891</v>
       </c>
       <c r="F90">
         <v>25.54655228635028</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.2332720457431225</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-45.23659539426297</v>
+        <v>-45.47199228608679</v>
       </c>
       <c r="E91">
-        <v>45.70313948574921</v>
+        <v>45.47199228608679</v>
       </c>
       <c r="F91">
         <v>-27.36359260664614</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>-0.2179503096080899</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-45.69134407036104</v>
+        <v>-45.47531911025645</v>
       </c>
       <c r="E92">
-        <v>45.25544345114486</v>
+        <v>45.47531911025645</v>
       </c>
       <c r="F92">
         <v>26.46808249166384</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>0.1993375698331552</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-45.27679962292069</v>
+        <v>-45.47788178132672</v>
       </c>
       <c r="E93">
-        <v>45.675474762587</v>
+        <v>45.47788178132672</v>
       </c>
       <c r="F93">
         <v>-38.93383394001262</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>-0.2858543390858719</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-45.77766139546766</v>
+        <v>-45.4933124699936</v>
       </c>
       <c r="E94">
-        <v>45.20595271729592</v>
+        <v>45.4933124699936</v>
       </c>
       <c r="F94">
         <v>9.73674969674363</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.03353756861216661</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-45.45135359248768</v>
+        <v>-45.48630749565422</v>
       </c>
       <c r="E95">
-        <v>45.51842872971201</v>
+        <v>45.48630749565422</v>
       </c>
       <c r="F95">
         <v>72.56325305264753</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>0.5906860836992252</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-44.96862147466928</v>
+        <v>-45.56080969800841</v>
       </c>
       <c r="E96">
-        <v>46.14999364206773</v>
+        <v>45.56080969800841</v>
       </c>
       <c r="F96">
         <v>27.7698835237743</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>0.3553654555392893</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-45.20702342618754</v>
+        <v>-45.56444332144053</v>
       </c>
       <c r="E97">
-        <v>45.91775433726612</v>
+        <v>45.56444332144053</v>
       </c>
       <c r="F97">
         <v>48.71564458723583</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>0.5811555375723358</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-45.00948794367041</v>
+        <v>-45.59327414959256</v>
       </c>
       <c r="E98">
-        <v>46.17179901881509</v>
+        <v>45.59327414959256</v>
       </c>
       <c r="F98">
         <v>-7.841992477445814</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.004830997033978379</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-45.57841814956225</v>
+        <v>-45.58573403537642</v>
       </c>
       <c r="E99">
-        <v>45.5880801436302</v>
+        <v>45.58573403537642</v>
       </c>
       <c r="F99">
         <v>-42.59685884513047</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.4417160865694276</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-46.04497228693992</v>
+        <v>-45.60574551937937</v>
       </c>
       <c r="E100">
-        <v>45.16154011380107</v>
+        <v>45.60574551937937</v>
       </c>
       <c r="F100">
         <v>34.43898683299764</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.265338139406178</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-45.34849967753465</v>
+        <v>-45.61586756087555</v>
       </c>
       <c r="E101">
-        <v>45.87917595634701</v>
+        <v>45.61586756087555</v>
       </c>
       <c r="F101">
         <v>-8.194653410331654</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>-0.03779421149635742</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-45.64425451683789</v>
+        <v>-45.60841996352909</v>
       </c>
       <c r="E102">
-        <v>45.56866609384518</v>
+        <v>45.60841996352909</v>
       </c>
       <c r="F102">
         <v>7.912693466140297</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.06693040100831493</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-45.5320256483587</v>
+        <v>-45.60090542581302</v>
       </c>
       <c r="E103">
-        <v>45.66588645037533</v>
+        <v>45.60090542581302</v>
       </c>
       <c r="F103">
         <v>14.88394573009444</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>0.1469514093610997</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-45.44695707203309</v>
+        <v>-45.59588872713193</v>
       </c>
       <c r="E104">
-        <v>45.7408598907553</v>
+        <v>45.59588872713193</v>
       </c>
       <c r="F104">
         <v>9.20621731496496</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>0.1072816194923825</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-45.47942606867646</v>
+        <v>-45.58872974082407</v>
       </c>
       <c r="E105">
-        <v>45.69398930766123</v>
+        <v>45.58872974082407</v>
       </c>
       <c r="F105">
         <v>10.54374748511222</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>0.114847736147512</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-45.46508484437107</v>
+        <v>-45.58198923916436</v>
       </c>
       <c r="E106">
-        <v>45.69478031666609</v>
+        <v>45.58198923916436</v>
       </c>
       <c r="F106">
         <v>7.45469640324643</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>0.08738893085700461</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-45.48490934537111</v>
+        <v>-45.57438101490594</v>
       </c>
       <c r="E107">
-        <v>45.65968720708511</v>
+        <v>45.57438101490594</v>
       </c>
       <c r="F107">
         <v>-63.07602922633322</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>-0.5606193800568082</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-46.18694034657764</v>
+        <v>-45.628233988967</v>
       </c>
       <c r="E108">
-        <v>45.06570158646403</v>
+        <v>45.628233988967</v>
       </c>
       <c r="F108">
         <v>-25.85675449646843</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>-0.3485804573746134</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-45.9764076331875</v>
+        <v>-45.63021557258842</v>
       </c>
       <c r="E109">
-        <v>45.27924671843827</v>
+        <v>45.63021557258842</v>
       </c>
       <c r="F109">
         <v>-3.765538923475731</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.08732754689625921</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-45.70685909570656</v>
+        <v>-45.62195832897665</v>
       </c>
       <c r="E110">
-        <v>45.53220400191403</v>
+        <v>45.62195832897665</v>
       </c>
       <c r="F110">
         <v>42.69702224671903</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.4163053299004345</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-45.22337034954022</v>
+        <v>-45.64199235578021</v>
       </c>
       <c r="E111">
-        <v>46.05598100934108</v>
+        <v>45.64199235578021</v>
       </c>
       <c r="F111">
         <v>-18.78890034589347</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.1256810352847109</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-45.76264110189376</v>
+        <v>-45.63903482692866</v>
       </c>
       <c r="E112">
-        <v>45.51127903132434</v>
+        <v>45.63903482692866</v>
       </c>
       <c r="F112">
         <v>-8.605148013484865</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>-0.09860948868606179</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-45.72822101742621</v>
+        <v>-45.63172056173381</v>
       </c>
       <c r="E113">
-        <v>45.5310020400541</v>
+        <v>45.63172056173381</v>
       </c>
       <c r="F113">
         <v>27.1108138085232</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>0.2408752997832058</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-45.39183335416791</v>
+        <v>-45.63473445930269</v>
       </c>
       <c r="E114">
-        <v>45.87358395373432</v>
+        <v>45.63473445930269</v>
       </c>
       <c r="F114">
         <v>-4.537769932083791</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.01108971005301251</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-45.63569115178143</v>
+        <v>-45.62659179601605</v>
       </c>
       <c r="E115">
-        <v>45.6135117316754</v>
+        <v>45.62659179601605</v>
       </c>
       <c r="F115">
         <v>21.73479486991425</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.1994001313025362</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-45.4241257811782</v>
+        <v>-45.6255068650246</v>
       </c>
       <c r="E116">
-        <v>45.82292604378328</v>
+        <v>45.6255068650246</v>
       </c>
       <c r="F116">
         <v>-37.13404995099836</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>-0.2980197825127027</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-45.93483122997965</v>
+        <v>-45.63856633758552</v>
       </c>
       <c r="E117">
-        <v>45.33879166495424</v>
+        <v>45.63856633758552</v>
       </c>
       <c r="F117">
         <v>-8.036553679906433</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>-0.1114993002377089</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-45.74078839410029</v>
+        <v>-45.63111814540976</v>
       </c>
       <c r="E118">
-        <v>45.51778979362486</v>
+        <v>45.63111814540976</v>
       </c>
       <c r="F118">
         <v>41.80041236335938</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>0.3440406834369485</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-45.30417454839293</v>
+        <v>-45.6499047798937</v>
       </c>
       <c r="E119">
-        <v>45.99225591526683</v>
+        <v>45.6499047798937</v>
       </c>
       <c r="F119">
         <v>-18.36460360236885</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.1344219870874281</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-45.77991437105261</v>
+        <v>-45.64670799964922</v>
       </c>
       <c r="E120">
-        <v>45.51107039687776</v>
+        <v>45.64670799964922</v>
       </c>
       <c r="F120">
         <v>-65.92825215671567</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>-0.5327456868000431</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-46.23715485718276</v>
+        <v>-45.70591369383274</v>
       </c>
       <c r="E121">
-        <v>45.17166348358268</v>
+        <v>45.70591369383274</v>
       </c>
       <c r="F121">
         <v>14.66479213645329</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>0.1105559394058536</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-45.58897894084978</v>
+        <v>-45.70080235334507</v>
       </c>
       <c r="E122">
-        <v>45.81009081966149</v>
+        <v>45.70080235334507</v>
       </c>
       <c r="F122">
         <v>-14.07591147905833</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.102744092890322</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-45.79695609369405</v>
+        <v>-45.69543111914299</v>
       </c>
       <c r="E123">
-        <v>45.59146790791341</v>
+        <v>45.69543111914299</v>
       </c>
       <c r="F123">
         <v>-4.716425655626466</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>-0.03412779603906913</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-45.72022358455101</v>
+        <v>-45.68732960080538</v>
       </c>
       <c r="E124">
-        <v>45.65196799247286</v>
+        <v>45.68732960080538</v>
       </c>
       <c r="F124">
         <v>-61.24034700321843</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.4595129287299603</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-46.19534439632265</v>
+        <v>-45.73712910671276</v>
       </c>
       <c r="E125">
-        <v>45.27631853886274</v>
+        <v>45.73712910671276</v>
       </c>
       <c r="F125">
         <v>17.62413700857977</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>0.1205758163942185</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-45.61186833754933</v>
+        <v>-45.73349984613387</v>
       </c>
       <c r="E126">
-        <v>45.85301997033776</v>
+        <v>45.73349984613387</v>
       </c>
       <c r="F126">
         <v>11.45406427241582</v>
